--- a/python/Human Design/data/definitions.xlsx
+++ b/python/Human Design/data/definitions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederictaieb/Desktop/Python/Human Design/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30F8335A-476A-5045-800D-160368C21E2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7435A6ED-ACAE-5145-831E-912457564A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12780" yWindow="6960" windowWidth="26840" windowHeight="15940" xr2:uid="{5199E38C-A03A-CB4B-9164-FD865D52F8E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Single Definition</t>
   </si>
@@ -57,14 +57,31 @@
   </si>
   <si>
     <t>There are no consistent Channels of Life Force and the person would be a Reflector Type. If you are a Reflector, Life Force definition would come to you as you sample the auras of others and amplify what is in the other. It means that as a Reflector you have the potential to move on without getting too caught up in the Fixed nature of others.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description_FR</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,51 +426,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E64154-F89C-DC4E-97EB-0D22E79BBC19}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
